--- a/backend/data/kollektivnie_dogovory.xlsx
+++ b/backend/data/kollektivnie_dogovory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -65,76 +65,79 @@
     <t>Статус согласования</t>
   </si>
   <si>
+    <t xml:space="preserve">08.07.2025 23:59:59 </t>
+  </si>
+  <si>
+    <t>Чемодановский территориальный отдел</t>
+  </si>
+  <si>
+    <t>Становлянский округ</t>
+  </si>
+  <si>
+    <t>09.01.2024</t>
+  </si>
+  <si>
+    <t>08.01.2027</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>муниципальная</t>
+  </si>
+  <si>
+    <t>Не относится к субъектам предпринимательской деятельности</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Не актуализировано</t>
+  </si>
+  <si>
+    <t>МБДОУ детский сад №10 г. Ельца</t>
+  </si>
+  <si>
+    <t>город Елец</t>
+  </si>
+  <si>
+    <t>17.01.2024</t>
+  </si>
+  <si>
+    <t>15.01.2027</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.06.2025 10:59:29 </t>
+  </si>
+  <si>
+    <t>Данные актуализированы</t>
+  </si>
+  <si>
+    <t>Муниципальное образование</t>
+  </si>
+  <si>
+    <t>Численность охваченных работников</t>
+  </si>
+  <si>
+    <t>17.01.2025</t>
+  </si>
+  <si>
+    <t>Липецкий МР</t>
+  </si>
+  <si>
+    <t>3 квартал 2025</t>
+  </si>
+  <si>
+    <t>иные отрасли</t>
+  </si>
+  <si>
     <t>2 квартал 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.07.2025 23:59:59 </t>
-  </si>
-  <si>
-    <t>Чемодановский территориальный отдел</t>
-  </si>
-  <si>
-    <t>Становлянский округ</t>
-  </si>
-  <si>
-    <t>09.01.2024</t>
-  </si>
-  <si>
-    <t>08.01.2027</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Иные отрасли</t>
-  </si>
-  <si>
-    <t>муниципальная</t>
-  </si>
-  <si>
-    <t>Не относится к субъектам предпринимательской деятельности</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Не актуализировано</t>
-  </si>
-  <si>
-    <t>МБДОУ детский сад №10 г. Ельца</t>
-  </si>
-  <si>
-    <t>город Елец</t>
-  </si>
-  <si>
-    <t>17.01.2024</t>
-  </si>
-  <si>
-    <t>15.01.2027</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Образование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.06.2025 10:59:29 </t>
-  </si>
-  <si>
-    <t>Данные актуализированы</t>
-  </si>
-  <si>
-    <t>Муниципальное образование</t>
-  </si>
-  <si>
-    <t>Численность охваченных работников</t>
-  </si>
-  <si>
-    <t>17.01.2025</t>
-  </si>
-  <si>
-    <t>Липецкий МР</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -531,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -560,107 +563,107 @@
     </row>
     <row r="2" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5"/>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="3">
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>46767</v>
@@ -669,43 +672,43 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5">
         <v>46767</v>
@@ -714,26 +717,204 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G7" s="3">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G8" s="3">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/kollektivnie_dogovory.xlsx
+++ b/backend/data/kollektivnie_dogovory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>2 квартал 2025</t>
+  </si>
+  <si>
+    <t>17.12.2025</t>
+  </si>
+  <si>
+    <t>Грязинский МР</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +882,7 @@
     </row>
     <row r="9" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -915,6 +921,141 @@
       <c r="N9" s="5"/>
       <c r="O9" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G10" s="3">
+        <v>180</v>
+      </c>
+      <c r="H10" s="2">
+        <v>180</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G11" s="3">
+        <v>180</v>
+      </c>
+      <c r="H11" s="2">
+        <v>180</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>46767</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
